--- a/github-22本科网工考勤--云计算与应用课程.xlsx
+++ b/github-22本科网工考勤--云计算与应用课程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>4-22 3-4节514</t>
   </si>
@@ -602,9 +602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1674,6 +1674,9 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="K31" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
@@ -1707,6 +1710,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K32" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
@@ -1877,6 +1883,9 @@
       <c r="J37" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">

--- a/github-22本科网工考勤--云计算与应用课程.xlsx
+++ b/github-22本科网工考勤--云计算与应用课程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>4-22 3-4节514</t>
   </si>
@@ -602,9 +602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K33" sqref="K33"/>
+      <selection pane="topRight" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,6 +684,9 @@
         <f>SUM(,B2,,C2,D2,,E2,F2,G2,H2,I2)</f>
         <v>80</v>
       </c>
+      <c r="K2" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -753,6 +756,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K4" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -786,6 +792,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K5" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -819,6 +828,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K6" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -852,6 +864,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K7" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -885,6 +900,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K8" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -954,6 +972,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K10" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -987,6 +1008,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K11" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -1020,6 +1044,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K12" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -1053,6 +1080,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="K13" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -1086,6 +1116,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K14" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -1119,6 +1152,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K15" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -1224,6 +1260,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="K18" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -1401,6 +1440,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K23" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -1434,6 +1476,9 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="K24" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -1539,6 +1584,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K27" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
@@ -1605,6 +1653,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K29" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -1746,6 +1797,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K33" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -1851,6 +1905,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K36" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
@@ -1920,6 +1977,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K38" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
@@ -2025,6 +2085,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K41" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
@@ -2091,6 +2154,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="K43" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
@@ -2193,6 +2259,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K46" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
@@ -2225,6 +2294,9 @@
       <c r="J47" s="1">
         <f t="shared" si="0"/>
         <v>70</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="57" x14ac:dyDescent="0.2">

--- a/github-22本科网工考勤--云计算与应用课程.xlsx
+++ b/github-22本科网工考勤--云计算与应用课程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>4-22 3-4节514</t>
   </si>
@@ -229,6 +229,23 @@
   </si>
   <si>
     <t>卜*涵</t>
+  </si>
+  <si>
+    <t>实验得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">弄虚作假，全0分，属于学业造假欺骗，情节特别严重
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -313,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -324,6 +341,8 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -600,11 +619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,7 +636,7 @@
     <col min="11" max="11" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -651,8 +670,11 @@
       <c r="K1" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -687,8 +709,12 @@
       <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <f>MIN(100, ROUND(J2*1.05, 0))</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -723,8 +749,12 @@
       <c r="K3" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <f t="shared" ref="L3:L48" si="1">MIN(100, ROUND(J3*1.05, 0))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -759,8 +789,12 @@
       <c r="K4" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -795,8 +829,12 @@
       <c r="K5" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -831,8 +869,12 @@
       <c r="K6" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -867,8 +909,12 @@
       <c r="K7" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -903,8 +949,12 @@
       <c r="K8" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -939,8 +989,12 @@
       <c r="K9" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -975,8 +1029,12 @@
       <c r="K10" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1011,8 +1069,12 @@
       <c r="K11" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1047,8 +1109,12 @@
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1083,8 +1149,12 @@
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1119,8 +1189,12 @@
       <c r="K14" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1155,8 +1229,12 @@
       <c r="K15" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1191,8 +1269,12 @@
       <c r="K16" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1227,8 +1309,12 @@
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1263,8 +1349,12 @@
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1299,8 +1389,12 @@
       <c r="K19" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1335,8 +1429,12 @@
       <c r="K20" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -1371,10 +1469,14 @@
       <c r="K21" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="B22" s="3">
         <v>5</v>
@@ -1407,8 +1509,12 @@
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1443,8 +1549,12 @@
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1479,8 +1589,12 @@
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -1515,8 +1629,12 @@
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
@@ -1551,8 +1669,12 @@
       <c r="K26" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -1587,8 +1709,12 @@
       <c r="K27" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1620,8 +1746,15 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1656,8 +1789,12 @@
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1692,8 +1829,12 @@
       <c r="K30" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -1728,8 +1869,12 @@
       <c r="K31" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1764,8 +1909,11 @@
       <c r="K32" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -1800,8 +1948,12 @@
       <c r="K33" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -1836,8 +1988,12 @@
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -1872,8 +2028,12 @@
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -1908,8 +2068,12 @@
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -1944,8 +2108,12 @@
       <c r="K37" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
@@ -1980,8 +2148,12 @@
       <c r="K38" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
@@ -2016,8 +2188,12 @@
       <c r="K39" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
@@ -2052,8 +2228,12 @@
       <c r="K40" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
@@ -2088,8 +2268,12 @@
       <c r="K41" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
@@ -2121,8 +2305,15 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
@@ -2157,8 +2348,12 @@
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>54</v>
       </c>
@@ -2190,8 +2385,15 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
@@ -2226,8 +2428,12 @@
       <c r="K45" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>56</v>
       </c>
@@ -2262,8 +2468,12 @@
       <c r="K46" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
@@ -2298,8 +2508,12 @@
       <c r="K47" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
@@ -2334,8 +2548,12 @@
       <c r="K48" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>59</v>
       </c>
@@ -2352,7 +2570,7 @@
         <v>-5</v>
       </c>
       <c r="F49" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>10</v>
@@ -2365,7 +2583,13 @@
       </c>
       <c r="J49" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2410,7 +2634,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576 K1">
+  <conditionalFormatting sqref="J1:J1048576 K1:L1">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="60"/>

--- a/github-22本科网工考勤--云计算与应用课程.xlsx
+++ b/github-22本科网工考勤--云计算与应用课程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>4-22 3-4节514</t>
   </si>
@@ -247,13 +247,18 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>学期作业加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -330,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -343,6 +348,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -619,11 +626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K50" sqref="K50"/>
+      <selection pane="topRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -634,9 +641,10 @@
     <col min="7" max="9" width="9" style="1"/>
     <col min="10" max="10" width="9.25" style="1"/>
     <col min="11" max="11" width="32.5" customWidth="1"/>
+    <col min="13" max="13" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -673,8 +681,11 @@
       <c r="L1" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -713,8 +724,11 @@
         <f>MIN(100, ROUND(J2*1.05, 0))</f>
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -753,8 +767,11 @@
         <f t="shared" ref="L3:L48" si="1">MIN(100, ROUND(J3*1.05, 0))</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -793,8 +810,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -833,8 +853,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -873,8 +896,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -913,8 +939,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -953,8 +982,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -993,8 +1025,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1033,8 +1068,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1073,8 +1111,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1113,8 +1154,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1153,8 +1197,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1193,8 +1240,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1233,8 +1283,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1273,8 +1326,11 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1313,8 +1369,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1353,8 +1412,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1393,8 +1455,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1433,8 +1498,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -1473,8 +1541,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>62</v>
       </c>
@@ -1513,8 +1584,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1553,8 +1627,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1593,8 +1670,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -1633,8 +1713,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
@@ -1673,8 +1756,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -1713,8 +1799,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1753,8 +1842,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1793,8 +1885,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1833,8 +1928,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -1873,8 +1971,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1912,8 +2013,11 @@
       <c r="L32" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -1952,8 +2056,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -1992,8 +2099,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -2032,8 +2142,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -2072,8 +2185,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -2112,8 +2228,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
@@ -2152,8 +2271,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
@@ -2192,8 +2314,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
@@ -2232,8 +2357,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
@@ -2272,8 +2400,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
@@ -2312,8 +2443,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
@@ -2352,8 +2486,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>54</v>
       </c>
@@ -2392,8 +2529,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
@@ -2432,8 +2572,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2615,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
@@ -2512,8 +2658,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="M47" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
@@ -2552,8 +2701,11 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>59</v>
       </c>
@@ -2590,11 +2742,24 @@
       </c>
       <c r="L49" s="8" t="s">
         <v>61</v>
+      </c>
+      <c r="M49" s="11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="num" val="-5"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="-5"/>
@@ -2604,13 +2769,49 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="E1:F1048576">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="-5"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="5"/>
         <color rgb="FFFF7128"/>
         <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <color theme="0"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576 K1:M1">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="60"/>
+        <cfvo type="num" val="90"/>
+        <color rgb="FFFF0000"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="90"/>
+        <color rgb="FFFF0000"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="percent" val="90"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="9" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -2624,61 +2825,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="10"/>
-        <color theme="0"/>
-        <color theme="9" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576 K1:L1">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="60"/>
-        <cfvo type="num" val="90"/>
-        <color rgb="FFFF0000"/>
-        <color theme="9" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="90"/>
-        <color rgb="FFFF0000"/>
-        <color theme="9" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="percent" val="90"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="0"/>
-        <color theme="9" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="-5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D1:F1048576">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="num" val="-5"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="num" val="-5"/>
@@ -2687,6 +2834,24 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="num" val="-5"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="25"/>
+        <color rgb="FFC00000"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
